--- a/JP-TS-15/JP-TS-15-MainConsoleProject/ნიკა ჩხარტიშვილი ჰაკათონში მონაწილე ბავშვები.xlsx
+++ b/JP-TS-15/JP-TS-15-MainConsoleProject/ნიკა ჩხარტიშვილი ჰაკათონში მონაწილე ბავშვები.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\JP-TS-15\JP-TS-15\JP-TS-15-MainConsoleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4E3CF-FD08-4116-9372-0FAF1BFB6CA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBFFB5-87EB-46A4-95AC-0595967D1FDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>JP_TS_13</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>ნიკალაი სტეფანიანი</t>
+  </si>
+  <si>
+    <t>ალექსანდრე თელიაშვილი</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ მძინარაშვილი</t>
+  </si>
+  <si>
+    <t>თამარ მახათაძე</t>
+  </si>
+  <si>
+    <t>თორნიკე დონაძე</t>
+  </si>
+  <si>
+    <t>ნიკოლოზ კუპრაშვილი</t>
   </si>
 </sst>
 </file>
@@ -384,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +455,29 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
